--- a/docs/orçamento.xlsx
+++ b/docs/orçamento.xlsx
@@ -14,7 +14,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>Back-end</t>
+  </si>
+  <si>
+    <t>Front-end</t>
+  </si>
+  <si>
+    <t>Arquitetura</t>
+  </si>
   <si>
     <t>Administração</t>
   </si>
@@ -68,6 +77,9 @@
   </si>
   <si>
     <t>vai mostrar telefone e endereço do local que estava protegido e um campo pra deixar telefone e email se quiser</t>
+  </si>
+  <si>
+    <t>Valor total</t>
   </si>
 </sst>
 </file>
@@ -75,10 +87,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* \-??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* \-??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -89,23 +101,115 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,24 +223,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,89 +240,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,187 +254,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,39 +445,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -484,17 +463,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,8 +501,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,157 +550,160 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1009,89 +1024,148 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="39.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="1" spans="3:4">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+      <c r="C3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" ht="25.5" spans="1:3">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="6" ht="38.25" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" ht="25.5" spans="1:3">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" spans="1:3">
+      <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" ht="38.25" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6">
+      <c r="C14">
+        <f>SUM(C3:C13)</f>
+        <v>76</v>
+      </c>
+      <c r="D14">
+        <f>SUM(D3:D13)</f>
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f>SUM(C14,D14)*45</f>
+        <v>3420</v>
+      </c>
+      <c r="F14" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
